--- a/data/trans_dic/P78C_R-Provincia-trans_dic.xlsx
+++ b/data/trans_dic/P78C_R-Provincia-trans_dic.xlsx
@@ -739,7 +739,7 @@
       </c>
       <c r="F5" s="2" t="inlineStr">
         <is>
-          <t>0,0; 0,37</t>
+          <t>0,0; 0,32</t>
         </is>
       </c>
       <c r="G5" s="2" t="inlineStr">
@@ -759,7 +759,7 @@
       </c>
       <c r="J5" s="2" t="inlineStr">
         <is>
-          <t>0,0; 5,5</t>
+          <t>0,0; 5,31</t>
         </is>
       </c>
       <c r="K5" s="2" t="inlineStr">
@@ -779,7 +779,7 @@
       </c>
       <c r="N5" s="2" t="inlineStr">
         <is>
-          <t>0,03; 3,15</t>
+          <t>0,03; 3,38</t>
         </is>
       </c>
     </row>
@@ -879,7 +879,7 @@
       </c>
       <c r="F7" s="2" t="inlineStr">
         <is>
-          <t>3,05; 8,68</t>
+          <t>2,85; 8,42</t>
         </is>
       </c>
       <c r="G7" s="2" t="inlineStr">
@@ -899,7 +899,7 @@
       </c>
       <c r="J7" s="2" t="inlineStr">
         <is>
-          <t>0,95; 2,9</t>
+          <t>0,82; 2,93</t>
         </is>
       </c>
       <c r="K7" s="2" t="inlineStr">
@@ -919,7 +919,7 @@
       </c>
       <c r="N7" s="2" t="inlineStr">
         <is>
-          <t>2,27; 5,3</t>
+          <t>2,25; 5,26</t>
         </is>
       </c>
     </row>
@@ -1019,7 +1019,7 @@
       </c>
       <c r="F9" s="2" t="inlineStr">
         <is>
-          <t>0,99; 4,78</t>
+          <t>1,04; 4,96</t>
         </is>
       </c>
       <c r="G9" s="2" t="inlineStr">
@@ -1039,7 +1039,7 @@
       </c>
       <c r="J9" s="2" t="inlineStr">
         <is>
-          <t>1,54; 4,98</t>
+          <t>1,51; 4,82</t>
         </is>
       </c>
       <c r="K9" s="2" t="inlineStr">
@@ -1059,7 +1059,7 @@
       </c>
       <c r="N9" s="2" t="inlineStr">
         <is>
-          <t>1,68; 4,12</t>
+          <t>1,62; 4,25</t>
         </is>
       </c>
     </row>
@@ -1159,7 +1159,7 @@
       </c>
       <c r="F11" s="2" t="inlineStr">
         <is>
-          <t>1,64; 6,02</t>
+          <t>1,73; 6,6</t>
         </is>
       </c>
       <c r="G11" s="2" t="inlineStr">
@@ -1179,7 +1179,7 @@
       </c>
       <c r="J11" s="2" t="inlineStr">
         <is>
-          <t>2,15; 6,74</t>
+          <t>2,05; 7,05</t>
         </is>
       </c>
       <c r="K11" s="2" t="inlineStr">
@@ -1199,7 +1199,7 @@
       </c>
       <c r="N11" s="2" t="inlineStr">
         <is>
-          <t>2,31; 5,4</t>
+          <t>2,31; 5,79</t>
         </is>
       </c>
     </row>
@@ -1299,7 +1299,7 @@
       </c>
       <c r="F13" s="2" t="inlineStr">
         <is>
-          <t>0,0; 1,69</t>
+          <t>0,0; 1,49</t>
         </is>
       </c>
       <c r="G13" s="2" t="inlineStr">
@@ -1319,7 +1319,7 @@
       </c>
       <c r="J13" s="2" t="inlineStr">
         <is>
-          <t>0,0; 2,38</t>
+          <t>0,0; 2,64</t>
         </is>
       </c>
       <c r="K13" s="2" t="inlineStr">
@@ -1339,7 +1339,7 @@
       </c>
       <c r="N13" s="2" t="inlineStr">
         <is>
-          <t>0,09; 1,67</t>
+          <t>0,12; 1,88</t>
         </is>
       </c>
     </row>
@@ -1439,7 +1439,7 @@
       </c>
       <c r="F15" s="2" t="inlineStr">
         <is>
-          <t>0,78; 4,51</t>
+          <t>0,76; 4,61</t>
         </is>
       </c>
       <c r="G15" s="2" t="inlineStr">
@@ -1459,7 +1459,7 @@
       </c>
       <c r="J15" s="2" t="inlineStr">
         <is>
-          <t>1,74; 6,45</t>
+          <t>1,7; 6,15</t>
         </is>
       </c>
       <c r="K15" s="2" t="inlineStr">
@@ -1479,7 +1479,7 @@
       </c>
       <c r="N15" s="2" t="inlineStr">
         <is>
-          <t>1,56; 4,43</t>
+          <t>1,61; 4,55</t>
         </is>
       </c>
     </row>
@@ -1579,7 +1579,7 @@
       </c>
       <c r="F17" s="2" t="inlineStr">
         <is>
-          <t>0,75; 2,88</t>
+          <t>0,78; 2,83</t>
         </is>
       </c>
       <c r="G17" s="2" t="inlineStr">
@@ -1599,7 +1599,7 @@
       </c>
       <c r="J17" s="2" t="inlineStr">
         <is>
-          <t>1,24; 4,01</t>
+          <t>1,18; 3,87</t>
         </is>
       </c>
       <c r="K17" s="2" t="inlineStr">
@@ -1619,7 +1619,7 @@
       </c>
       <c r="N17" s="2" t="inlineStr">
         <is>
-          <t>1,28; 3,07</t>
+          <t>1,3; 3,1</t>
         </is>
       </c>
     </row>
@@ -1719,7 +1719,7 @@
       </c>
       <c r="F19" s="2" t="inlineStr">
         <is>
-          <t>0,68; 2,42</t>
+          <t>0,67; 2,47</t>
         </is>
       </c>
       <c r="G19" s="2" t="inlineStr">
@@ -1739,7 +1739,7 @@
       </c>
       <c r="J19" s="2" t="inlineStr">
         <is>
-          <t>0,69; 2,18</t>
+          <t>0,67; 2,15</t>
         </is>
       </c>
       <c r="K19" s="2" t="inlineStr">
@@ -1759,7 +1759,7 @@
       </c>
       <c r="N19" s="2" t="inlineStr">
         <is>
-          <t>0,87; 1,96</t>
+          <t>0,84; 2,0</t>
         </is>
       </c>
     </row>
@@ -1859,7 +1859,7 @@
       </c>
       <c r="F21" s="2" t="inlineStr">
         <is>
-          <t>1,67; 2,91</t>
+          <t>1,69; 2,88</t>
         </is>
       </c>
       <c r="G21" s="2" t="inlineStr">
@@ -1879,7 +1879,7 @@
       </c>
       <c r="J21" s="2" t="inlineStr">
         <is>
-          <t>1,6; 2,62</t>
+          <t>1,61; 2,64</t>
         </is>
       </c>
       <c r="K21" s="2" t="inlineStr">
@@ -1899,7 +1899,7 @@
       </c>
       <c r="N21" s="2" t="inlineStr">
         <is>
-          <t>1,75; 2,55</t>
+          <t>1,75; 2,54</t>
         </is>
       </c>
     </row>

--- a/data/trans_dic/P78C_R-Provincia-trans_dic.xlsx
+++ b/data/trans_dic/P78C_R-Provincia-trans_dic.xlsx
@@ -578,7 +578,7 @@
       </c>
       <c r="E2" s="3" t="inlineStr">
         <is>
-          <t>2015</t>
+          <t>2016</t>
         </is>
       </c>
       <c r="F2" s="3" t="inlineStr">
@@ -598,7 +598,7 @@
       </c>
       <c r="I2" s="3" t="inlineStr">
         <is>
-          <t>2015</t>
+          <t>2016</t>
         </is>
       </c>
       <c r="J2" s="3" t="inlineStr">
@@ -618,7 +618,7 @@
       </c>
       <c r="M2" s="3" t="inlineStr">
         <is>
-          <t>2015</t>
+          <t>2016</t>
         </is>
       </c>
       <c r="N2" s="3" t="inlineStr">

--- a/data/trans_dic/P78C_R-Provincia-trans_dic.xlsx
+++ b/data/trans_dic/P78C_R-Provincia-trans_dic.xlsx
@@ -7,7 +7,7 @@
     <workbookView visibility="visible" minimized="0" showHorizontalScroll="1" showVerticalScroll="1" showSheetTabs="1" tabRatio="600" firstSheet="0" activeTab="0" autoFilterDateGrouping="1"/>
   </bookViews>
   <sheets>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Transversal dicotómica" sheetId="1" state="visible" r:id="rId1"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Variables dicotomizadas" sheetId="1" state="visible" r:id="rId1"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -739,7 +739,7 @@
       </c>
       <c r="F5" s="2" t="inlineStr">
         <is>
-          <t>0,0; 0,32</t>
+          <t>0,0; 0,31</t>
         </is>
       </c>
       <c r="G5" s="2" t="inlineStr">
@@ -759,7 +759,7 @@
       </c>
       <c r="J5" s="2" t="inlineStr">
         <is>
-          <t>0,0; 5,31</t>
+          <t>0,0; 6,19</t>
         </is>
       </c>
       <c r="K5" s="2" t="inlineStr">
@@ -779,7 +779,7 @@
       </c>
       <c r="N5" s="2" t="inlineStr">
         <is>
-          <t>0,03; 3,38</t>
+          <t>0,03; 2,76</t>
         </is>
       </c>
     </row>
@@ -811,7 +811,7 @@
       </c>
       <c r="F6" s="2" t="inlineStr">
         <is>
-          <t>5,16%</t>
+          <t>5,09%</t>
         </is>
       </c>
       <c r="G6" s="2" t="inlineStr">
@@ -831,7 +831,7 @@
       </c>
       <c r="J6" s="2" t="inlineStr">
         <is>
-          <t>1,73%</t>
+          <t>1,71%</t>
         </is>
       </c>
       <c r="K6" s="2" t="inlineStr">
@@ -851,7 +851,7 @@
       </c>
       <c r="N6" s="2" t="inlineStr">
         <is>
-          <t>3,39%</t>
+          <t>3,35%</t>
         </is>
       </c>
     </row>
@@ -879,7 +879,7 @@
       </c>
       <c r="F7" s="2" t="inlineStr">
         <is>
-          <t>2,85; 8,42</t>
+          <t>2,97; 8,28</t>
         </is>
       </c>
       <c r="G7" s="2" t="inlineStr">
@@ -899,7 +899,7 @@
       </c>
       <c r="J7" s="2" t="inlineStr">
         <is>
-          <t>0,82; 2,93</t>
+          <t>0,99; 2,99</t>
         </is>
       </c>
       <c r="K7" s="2" t="inlineStr">
@@ -919,7 +919,7 @@
       </c>
       <c r="N7" s="2" t="inlineStr">
         <is>
-          <t>2,25; 5,26</t>
+          <t>2,11; 5,01</t>
         </is>
       </c>
     </row>
@@ -971,7 +971,7 @@
       </c>
       <c r="J8" s="2" t="inlineStr">
         <is>
-          <t>2,85%</t>
+          <t>2,84%</t>
         </is>
       </c>
       <c r="K8" s="2" t="inlineStr">
@@ -991,7 +991,7 @@
       </c>
       <c r="N8" s="2" t="inlineStr">
         <is>
-          <t>2,65%</t>
+          <t>2,64%</t>
         </is>
       </c>
     </row>
@@ -1019,7 +1019,7 @@
       </c>
       <c r="F9" s="2" t="inlineStr">
         <is>
-          <t>1,04; 4,96</t>
+          <t>0,99; 4,78</t>
         </is>
       </c>
       <c r="G9" s="2" t="inlineStr">
@@ -1039,7 +1039,7 @@
       </c>
       <c r="J9" s="2" t="inlineStr">
         <is>
-          <t>1,51; 4,82</t>
+          <t>1,49; 4,94</t>
         </is>
       </c>
       <c r="K9" s="2" t="inlineStr">
@@ -1059,7 +1059,7 @@
       </c>
       <c r="N9" s="2" t="inlineStr">
         <is>
-          <t>1,62; 4,25</t>
+          <t>1,61; 4,11</t>
         </is>
       </c>
     </row>
@@ -1091,7 +1091,7 @@
       </c>
       <c r="F10" s="2" t="inlineStr">
         <is>
-          <t>3,35%</t>
+          <t>3,29%</t>
         </is>
       </c>
       <c r="G10" s="2" t="inlineStr">
@@ -1111,7 +1111,7 @@
       </c>
       <c r="J10" s="2" t="inlineStr">
         <is>
-          <t>3,68%</t>
+          <t>3,63%</t>
         </is>
       </c>
       <c r="K10" s="2" t="inlineStr">
@@ -1131,7 +1131,7 @@
       </c>
       <c r="N10" s="2" t="inlineStr">
         <is>
-          <t>3,54%</t>
+          <t>3,49%</t>
         </is>
       </c>
     </row>
@@ -1159,7 +1159,7 @@
       </c>
       <c r="F11" s="2" t="inlineStr">
         <is>
-          <t>1,73; 6,6</t>
+          <t>1,53; 5,82</t>
         </is>
       </c>
       <c r="G11" s="2" t="inlineStr">
@@ -1179,7 +1179,7 @@
       </c>
       <c r="J11" s="2" t="inlineStr">
         <is>
-          <t>2,05; 7,05</t>
+          <t>1,98; 6,82</t>
         </is>
       </c>
       <c r="K11" s="2" t="inlineStr">
@@ -1199,7 +1199,7 @@
       </c>
       <c r="N11" s="2" t="inlineStr">
         <is>
-          <t>2,31; 5,79</t>
+          <t>2,18; 5,4</t>
         </is>
       </c>
     </row>
@@ -1231,7 +1231,7 @@
       </c>
       <c r="F12" s="2" t="inlineStr">
         <is>
-          <t>0,28%</t>
+          <t>0,27%</t>
         </is>
       </c>
       <c r="G12" s="2" t="inlineStr">
@@ -1251,7 +1251,7 @@
       </c>
       <c r="J12" s="2" t="inlineStr">
         <is>
-          <t>0,63%</t>
+          <t>0,62%</t>
         </is>
       </c>
       <c r="K12" s="2" t="inlineStr">
@@ -1271,7 +1271,7 @@
       </c>
       <c r="N12" s="2" t="inlineStr">
         <is>
-          <t>0,48%</t>
+          <t>0,47%</t>
         </is>
       </c>
     </row>
@@ -1299,7 +1299,7 @@
       </c>
       <c r="F13" s="2" t="inlineStr">
         <is>
-          <t>0,0; 1,49</t>
+          <t>0,0; 1,68</t>
         </is>
       </c>
       <c r="G13" s="2" t="inlineStr">
@@ -1319,7 +1319,7 @@
       </c>
       <c r="J13" s="2" t="inlineStr">
         <is>
-          <t>0,0; 2,64</t>
+          <t>0,0; 2,77</t>
         </is>
       </c>
       <c r="K13" s="2" t="inlineStr">
@@ -1339,7 +1339,7 @@
       </c>
       <c r="N13" s="2" t="inlineStr">
         <is>
-          <t>0,12; 1,88</t>
+          <t>0,09; 1,55</t>
         </is>
       </c>
     </row>
@@ -1391,7 +1391,7 @@
       </c>
       <c r="J14" s="2" t="inlineStr">
         <is>
-          <t>3,34%</t>
+          <t>3,33%</t>
         </is>
       </c>
       <c r="K14" s="2" t="inlineStr">
@@ -1439,7 +1439,7 @@
       </c>
       <c r="F15" s="2" t="inlineStr">
         <is>
-          <t>0,76; 4,61</t>
+          <t>0,78; 4,51</t>
         </is>
       </c>
       <c r="G15" s="2" t="inlineStr">
@@ -1459,7 +1459,7 @@
       </c>
       <c r="J15" s="2" t="inlineStr">
         <is>
-          <t>1,7; 6,15</t>
+          <t>1,93; 6,51</t>
         </is>
       </c>
       <c r="K15" s="2" t="inlineStr">
@@ -1479,7 +1479,7 @@
       </c>
       <c r="N15" s="2" t="inlineStr">
         <is>
-          <t>1,61; 4,55</t>
+          <t>1,57; 4,32</t>
         </is>
       </c>
     </row>
@@ -1511,7 +1511,7 @@
       </c>
       <c r="F16" s="2" t="inlineStr">
         <is>
-          <t>1,64%</t>
+          <t>1,6%</t>
         </is>
       </c>
       <c r="G16" s="2" t="inlineStr">
@@ -1531,7 +1531,7 @@
       </c>
       <c r="J16" s="2" t="inlineStr">
         <is>
-          <t>2,32%</t>
+          <t>2,29%</t>
         </is>
       </c>
       <c r="K16" s="2" t="inlineStr">
@@ -1551,7 +1551,7 @@
       </c>
       <c r="N16" s="2" t="inlineStr">
         <is>
-          <t>2,02%</t>
+          <t>1,99%</t>
         </is>
       </c>
     </row>
@@ -1579,7 +1579,7 @@
       </c>
       <c r="F17" s="2" t="inlineStr">
         <is>
-          <t>0,78; 2,83</t>
+          <t>0,84; 2,99</t>
         </is>
       </c>
       <c r="G17" s="2" t="inlineStr">
@@ -1599,7 +1599,7 @@
       </c>
       <c r="J17" s="2" t="inlineStr">
         <is>
-          <t>1,18; 3,87</t>
+          <t>1,23; 3,93</t>
         </is>
       </c>
       <c r="K17" s="2" t="inlineStr">
@@ -1619,7 +1619,7 @@
       </c>
       <c r="N17" s="2" t="inlineStr">
         <is>
-          <t>1,3; 3,1</t>
+          <t>1,23; 2,92</t>
         </is>
       </c>
     </row>
@@ -1651,7 +1651,7 @@
       </c>
       <c r="F18" s="2" t="inlineStr">
         <is>
-          <t>1,43%</t>
+          <t>1,41%</t>
         </is>
       </c>
       <c r="G18" s="2" t="inlineStr">
@@ -1671,7 +1671,7 @@
       </c>
       <c r="J18" s="2" t="inlineStr">
         <is>
-          <t>1,25%</t>
+          <t>1,23%</t>
         </is>
       </c>
       <c r="K18" s="2" t="inlineStr">
@@ -1691,7 +1691,7 @@
       </c>
       <c r="N18" s="2" t="inlineStr">
         <is>
-          <t>1,34%</t>
+          <t>1,32%</t>
         </is>
       </c>
     </row>
@@ -1719,7 +1719,7 @@
       </c>
       <c r="F19" s="2" t="inlineStr">
         <is>
-          <t>0,67; 2,47</t>
+          <t>0,71; 2,59</t>
         </is>
       </c>
       <c r="G19" s="2" t="inlineStr">
@@ -1739,7 +1739,7 @@
       </c>
       <c r="J19" s="2" t="inlineStr">
         <is>
-          <t>0,67; 2,15</t>
+          <t>0,62; 2,08</t>
         </is>
       </c>
       <c r="K19" s="2" t="inlineStr">
@@ -1759,7 +1759,7 @@
       </c>
       <c r="N19" s="2" t="inlineStr">
         <is>
-          <t>0,84; 2,0</t>
+          <t>0,86; 2,07</t>
         </is>
       </c>
     </row>
@@ -1791,7 +1791,7 @@
       </c>
       <c r="F20" s="2" t="inlineStr">
         <is>
-          <t>2,19%</t>
+          <t>2,16%</t>
         </is>
       </c>
       <c r="G20" s="2" t="inlineStr">
@@ -1811,7 +1811,7 @@
       </c>
       <c r="J20" s="2" t="inlineStr">
         <is>
-          <t>2,08%</t>
+          <t>2,05%</t>
         </is>
       </c>
       <c r="K20" s="2" t="inlineStr">
@@ -1831,7 +1831,7 @@
       </c>
       <c r="N20" s="2" t="inlineStr">
         <is>
-          <t>2,13%</t>
+          <t>2,1%</t>
         </is>
       </c>
     </row>
@@ -1859,7 +1859,7 @@
       </c>
       <c r="F21" s="2" t="inlineStr">
         <is>
-          <t>1,69; 2,88</t>
+          <t>1,66; 2,86</t>
         </is>
       </c>
       <c r="G21" s="2" t="inlineStr">
@@ -1879,7 +1879,7 @@
       </c>
       <c r="J21" s="2" t="inlineStr">
         <is>
-          <t>1,61; 2,64</t>
+          <t>1,62; 2,67</t>
         </is>
       </c>
       <c r="K21" s="2" t="inlineStr">
@@ -1899,7 +1899,7 @@
       </c>
       <c r="N21" s="2" t="inlineStr">
         <is>
-          <t>1,75; 2,54</t>
+          <t>1,74; 2,53</t>
         </is>
       </c>
     </row>

--- a/data/trans_dic/P78C_R-Provincia-trans_dic.xlsx
+++ b/data/trans_dic/P78C_R-Provincia-trans_dic.xlsx
@@ -661,7 +661,7 @@
       </c>
       <c r="D4" s="2" t="inlineStr">
         <is>
-          <t>—%</t>
+          <t>0,0%</t>
         </is>
       </c>
       <c r="E4" s="2" t="inlineStr">
@@ -671,7 +671,7 @@
       </c>
       <c r="F4" s="2" t="inlineStr">
         <is>
-          <t>0,06%</t>
+          <t>0,05%</t>
         </is>
       </c>
       <c r="G4" s="2" t="inlineStr">
@@ -681,7 +681,7 @@
       </c>
       <c r="H4" s="2" t="inlineStr">
         <is>
-          <t>—%</t>
+          <t>0,0%</t>
         </is>
       </c>
       <c r="I4" s="2" t="inlineStr">
@@ -691,7 +691,7 @@
       </c>
       <c r="J4" s="2" t="inlineStr">
         <is>
-          <t>1,14%</t>
+          <t>1,76%</t>
         </is>
       </c>
       <c r="K4" s="2" t="inlineStr">
@@ -701,7 +701,7 @@
       </c>
       <c r="L4" s="2" t="inlineStr">
         <is>
-          <t>—%</t>
+          <t>0,0%</t>
         </is>
       </c>
       <c r="M4" s="2" t="inlineStr">
@@ -711,7 +711,7 @@
       </c>
       <c r="N4" s="2" t="inlineStr">
         <is>
-          <t>0,61%</t>
+          <t>0,88%</t>
         </is>
       </c>
     </row>
@@ -729,7 +729,7 @@
       </c>
       <c r="D5" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>0; 0,68</t>
         </is>
       </c>
       <c r="E5" s="2" t="inlineStr">
@@ -739,7 +739,7 @@
       </c>
       <c r="F5" s="2" t="inlineStr">
         <is>
-          <t>0,0; 0,31</t>
+          <t>0,0; 0,27</t>
         </is>
       </c>
       <c r="G5" s="2" t="inlineStr">
@@ -749,7 +749,7 @@
       </c>
       <c r="H5" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>0; 0,75</t>
         </is>
       </c>
       <c r="I5" s="2" t="inlineStr">
@@ -759,7 +759,7 @@
       </c>
       <c r="J5" s="2" t="inlineStr">
         <is>
-          <t>0,0; 6,19</t>
+          <t>0,0; 9,51</t>
         </is>
       </c>
       <c r="K5" s="2" t="inlineStr">
@@ -769,7 +769,7 @@
       </c>
       <c r="L5" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>0; 0,36</t>
         </is>
       </c>
       <c r="M5" s="2" t="inlineStr">
@@ -779,7 +779,7 @@
       </c>
       <c r="N5" s="2" t="inlineStr">
         <is>
-          <t>0,03; 2,76</t>
+          <t>0,03; 4,06</t>
         </is>
       </c>
     </row>
@@ -811,7 +811,7 @@
       </c>
       <c r="F6" s="2" t="inlineStr">
         <is>
-          <t>5,09%</t>
+          <t>5,26%</t>
         </is>
       </c>
       <c r="G6" s="2" t="inlineStr">
@@ -831,7 +831,7 @@
       </c>
       <c r="J6" s="2" t="inlineStr">
         <is>
-          <t>1,71%</t>
+          <t>1,72%</t>
         </is>
       </c>
       <c r="K6" s="2" t="inlineStr">
@@ -851,7 +851,7 @@
       </c>
       <c r="N6" s="2" t="inlineStr">
         <is>
-          <t>3,35%</t>
+          <t>3,49%</t>
         </is>
       </c>
     </row>
@@ -879,7 +879,7 @@
       </c>
       <c r="F7" s="2" t="inlineStr">
         <is>
-          <t>2,97; 8,28</t>
+          <t>3,06; 8,83</t>
         </is>
       </c>
       <c r="G7" s="2" t="inlineStr">
@@ -899,7 +899,7 @@
       </c>
       <c r="J7" s="2" t="inlineStr">
         <is>
-          <t>0,99; 2,99</t>
+          <t>0,99; 2,98</t>
         </is>
       </c>
       <c r="K7" s="2" t="inlineStr">
@@ -919,7 +919,7 @@
       </c>
       <c r="N7" s="2" t="inlineStr">
         <is>
-          <t>2,11; 5,01</t>
+          <t>2,15; 5,28</t>
         </is>
       </c>
     </row>
@@ -951,7 +951,7 @@
       </c>
       <c r="F8" s="2" t="inlineStr">
         <is>
-          <t>2,41%</t>
+          <t>2,43%</t>
         </is>
       </c>
       <c r="G8" s="2" t="inlineStr">
@@ -971,7 +971,7 @@
       </c>
       <c r="J8" s="2" t="inlineStr">
         <is>
-          <t>2,84%</t>
+          <t>2,86%</t>
         </is>
       </c>
       <c r="K8" s="2" t="inlineStr">
@@ -991,7 +991,7 @@
       </c>
       <c r="N8" s="2" t="inlineStr">
         <is>
-          <t>2,64%</t>
+          <t>2,66%</t>
         </is>
       </c>
     </row>
@@ -1019,7 +1019,7 @@
       </c>
       <c r="F9" s="2" t="inlineStr">
         <is>
-          <t>0,99; 4,78</t>
+          <t>0,98; 4,79</t>
         </is>
       </c>
       <c r="G9" s="2" t="inlineStr">
@@ -1039,7 +1039,7 @@
       </c>
       <c r="J9" s="2" t="inlineStr">
         <is>
-          <t>1,49; 4,94</t>
+          <t>1,48; 4,99</t>
         </is>
       </c>
       <c r="K9" s="2" t="inlineStr">
@@ -1059,7 +1059,7 @@
       </c>
       <c r="N9" s="2" t="inlineStr">
         <is>
-          <t>1,61; 4,11</t>
+          <t>1,62; 4,15</t>
         </is>
       </c>
     </row>
@@ -1091,7 +1091,7 @@
       </c>
       <c r="F10" s="2" t="inlineStr">
         <is>
-          <t>3,29%</t>
+          <t>3,25%</t>
         </is>
       </c>
       <c r="G10" s="2" t="inlineStr">
@@ -1111,7 +1111,7 @@
       </c>
       <c r="J10" s="2" t="inlineStr">
         <is>
-          <t>3,63%</t>
+          <t>3,05%</t>
         </is>
       </c>
       <c r="K10" s="2" t="inlineStr">
@@ -1131,7 +1131,7 @@
       </c>
       <c r="N10" s="2" t="inlineStr">
         <is>
-          <t>3,49%</t>
+          <t>3,13%</t>
         </is>
       </c>
     </row>
@@ -1149,7 +1149,7 @@
       </c>
       <c r="D11" s="2" t="inlineStr">
         <is>
-          <t>0; 0,31</t>
+          <t>0; 0,56</t>
         </is>
       </c>
       <c r="E11" s="2" t="inlineStr">
@@ -1159,7 +1159,7 @@
       </c>
       <c r="F11" s="2" t="inlineStr">
         <is>
-          <t>1,53; 5,82</t>
+          <t>1,55; 5,8</t>
         </is>
       </c>
       <c r="G11" s="2" t="inlineStr">
@@ -1169,7 +1169,7 @@
       </c>
       <c r="H11" s="2" t="inlineStr">
         <is>
-          <t>0; 0,31</t>
+          <t>0; 0,52</t>
         </is>
       </c>
       <c r="I11" s="2" t="inlineStr">
@@ -1179,7 +1179,7 @@
       </c>
       <c r="J11" s="2" t="inlineStr">
         <is>
-          <t>1,98; 6,82</t>
+          <t>1,44; 5,49</t>
         </is>
       </c>
       <c r="K11" s="2" t="inlineStr">
@@ -1189,7 +1189,7 @@
       </c>
       <c r="L11" s="2" t="inlineStr">
         <is>
-          <t>0; 0,15</t>
+          <t>0; 0,27</t>
         </is>
       </c>
       <c r="M11" s="2" t="inlineStr">
@@ -1199,7 +1199,7 @@
       </c>
       <c r="N11" s="2" t="inlineStr">
         <is>
-          <t>2,18; 5,4</t>
+          <t>1,81; 4,89</t>
         </is>
       </c>
     </row>
@@ -1231,7 +1231,7 @@
       </c>
       <c r="F12" s="2" t="inlineStr">
         <is>
-          <t>0,27%</t>
+          <t>0,28%</t>
         </is>
       </c>
       <c r="G12" s="2" t="inlineStr">
@@ -1251,7 +1251,7 @@
       </c>
       <c r="J12" s="2" t="inlineStr">
         <is>
-          <t>0,62%</t>
+          <t>0,54%</t>
         </is>
       </c>
       <c r="K12" s="2" t="inlineStr">
@@ -1271,7 +1271,7 @@
       </c>
       <c r="N12" s="2" t="inlineStr">
         <is>
-          <t>0,47%</t>
+          <t>0,43%</t>
         </is>
       </c>
     </row>
@@ -1319,7 +1319,7 @@
       </c>
       <c r="J13" s="2" t="inlineStr">
         <is>
-          <t>0,0; 2,77</t>
+          <t>0,0; 2,22</t>
         </is>
       </c>
       <c r="K13" s="2" t="inlineStr">
@@ -1339,7 +1339,7 @@
       </c>
       <c r="N13" s="2" t="inlineStr">
         <is>
-          <t>0,09; 1,55</t>
+          <t>0,09; 1,44</t>
         </is>
       </c>
     </row>
@@ -1391,7 +1391,7 @@
       </c>
       <c r="J14" s="2" t="inlineStr">
         <is>
-          <t>3,33%</t>
+          <t>3,27%</t>
         </is>
       </c>
       <c r="K14" s="2" t="inlineStr">
@@ -1411,7 +1411,7 @@
       </c>
       <c r="N14" s="2" t="inlineStr">
         <is>
-          <t>2,66%</t>
+          <t>2,62%</t>
         </is>
       </c>
     </row>
@@ -1439,7 +1439,7 @@
       </c>
       <c r="F15" s="2" t="inlineStr">
         <is>
-          <t>0,78; 4,51</t>
+          <t>0,8; 4,51</t>
         </is>
       </c>
       <c r="G15" s="2" t="inlineStr">
@@ -1459,7 +1459,7 @@
       </c>
       <c r="J15" s="2" t="inlineStr">
         <is>
-          <t>1,93; 6,51</t>
+          <t>1,92; 6,38</t>
         </is>
       </c>
       <c r="K15" s="2" t="inlineStr">
@@ -1479,7 +1479,7 @@
       </c>
       <c r="N15" s="2" t="inlineStr">
         <is>
-          <t>1,57; 4,32</t>
+          <t>1,58; 4,29</t>
         </is>
       </c>
     </row>
@@ -1511,7 +1511,7 @@
       </c>
       <c r="F16" s="2" t="inlineStr">
         <is>
-          <t>1,6%</t>
+          <t>1,56%</t>
         </is>
       </c>
       <c r="G16" s="2" t="inlineStr">
@@ -1531,7 +1531,7 @@
       </c>
       <c r="J16" s="2" t="inlineStr">
         <is>
-          <t>2,29%</t>
+          <t>2,01%</t>
         </is>
       </c>
       <c r="K16" s="2" t="inlineStr">
@@ -1551,7 +1551,7 @@
       </c>
       <c r="N16" s="2" t="inlineStr">
         <is>
-          <t>1,99%</t>
+          <t>1,82%</t>
         </is>
       </c>
     </row>
@@ -1579,7 +1579,7 @@
       </c>
       <c r="F17" s="2" t="inlineStr">
         <is>
-          <t>0,84; 2,99</t>
+          <t>0,81; 2,9</t>
         </is>
       </c>
       <c r="G17" s="2" t="inlineStr">
@@ -1599,7 +1599,7 @@
       </c>
       <c r="J17" s="2" t="inlineStr">
         <is>
-          <t>1,23; 3,93</t>
+          <t>0,76; 3,51</t>
         </is>
       </c>
       <c r="K17" s="2" t="inlineStr">
@@ -1619,7 +1619,7 @@
       </c>
       <c r="N17" s="2" t="inlineStr">
         <is>
-          <t>1,23; 2,92</t>
+          <t>1,05; 2,74</t>
         </is>
       </c>
     </row>
@@ -1651,7 +1651,7 @@
       </c>
       <c r="F18" s="2" t="inlineStr">
         <is>
-          <t>1,41%</t>
+          <t>1,11%</t>
         </is>
       </c>
       <c r="G18" s="2" t="inlineStr">
@@ -1671,7 +1671,7 @@
       </c>
       <c r="J18" s="2" t="inlineStr">
         <is>
-          <t>1,23%</t>
+          <t>1,24%</t>
         </is>
       </c>
       <c r="K18" s="2" t="inlineStr">
@@ -1691,7 +1691,7 @@
       </c>
       <c r="N18" s="2" t="inlineStr">
         <is>
-          <t>1,32%</t>
+          <t>1,16%</t>
         </is>
       </c>
     </row>
@@ -1719,7 +1719,7 @@
       </c>
       <c r="F19" s="2" t="inlineStr">
         <is>
-          <t>0,71; 2,59</t>
+          <t>0,35; 2,05</t>
         </is>
       </c>
       <c r="G19" s="2" t="inlineStr">
@@ -1739,7 +1739,7 @@
       </c>
       <c r="J19" s="2" t="inlineStr">
         <is>
-          <t>0,62; 2,08</t>
+          <t>0,62; 2,07</t>
         </is>
       </c>
       <c r="K19" s="2" t="inlineStr">
@@ -1759,7 +1759,7 @@
       </c>
       <c r="N19" s="2" t="inlineStr">
         <is>
-          <t>0,86; 2,07</t>
+          <t>0,64; 1,8</t>
         </is>
       </c>
     </row>
@@ -1791,7 +1791,7 @@
       </c>
       <c r="F20" s="2" t="inlineStr">
         <is>
-          <t>2,16%</t>
+          <t>2,06%</t>
         </is>
       </c>
       <c r="G20" s="2" t="inlineStr">
@@ -1811,7 +1811,7 @@
       </c>
       <c r="J20" s="2" t="inlineStr">
         <is>
-          <t>2,05%</t>
+          <t>2,0%</t>
         </is>
       </c>
       <c r="K20" s="2" t="inlineStr">
@@ -1831,7 +1831,7 @@
       </c>
       <c r="N20" s="2" t="inlineStr">
         <is>
-          <t>2,1%</t>
+          <t>2,03%</t>
         </is>
       </c>
     </row>
@@ -1859,7 +1859,7 @@
       </c>
       <c r="F21" s="2" t="inlineStr">
         <is>
-          <t>1,66; 2,86</t>
+          <t>1,5; 2,76</t>
         </is>
       </c>
       <c r="G21" s="2" t="inlineStr">
@@ -1879,7 +1879,7 @@
       </c>
       <c r="J21" s="2" t="inlineStr">
         <is>
-          <t>1,62; 2,67</t>
+          <t>1,54; 2,66</t>
         </is>
       </c>
       <c r="K21" s="2" t="inlineStr">
@@ -1899,7 +1899,7 @@
       </c>
       <c r="N21" s="2" t="inlineStr">
         <is>
-          <t>1,74; 2,53</t>
+          <t>1,64; 2,5</t>
         </is>
       </c>
     </row>
